--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_18-37.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_18-37.xlsx
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t xml:space="preserve">شامبو نونو 200ملل </t>
+  </si>
+  <si>
+    <t>شامبو هيد اند شولدر400 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
     <t xml:space="preserve">عضاضه الجو </t>
@@ -3073,13 +3079,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3091,7 +3097,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3099,13 +3105,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3117,7 +3123,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3125,13 +3131,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3151,13 +3157,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3177,13 +3183,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3203,13 +3209,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3229,51 +3235,103 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="92" ht="26.25" customHeight="1">
-      <c r="K92" s="10">
-        <v>3432.8299999999999</v>
-      </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="11">
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="6">
+        <v>89</v>
+      </c>
+      <c t="s" r="B92" s="7">
+        <v>121</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c t="s" r="H92" s="8">
+        <v>74</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9">
+        <v>25</v>
+      </c>
+      <c r="M92" s="9"/>
+      <c t="s" r="N92" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" ht="25.5" customHeight="1">
+      <c r="A93" s="6">
+        <v>90</v>
+      </c>
+      <c t="s" r="B93" s="7">
         <v>122</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c t="s" r="F93" s="12">
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c t="s" r="H93" s="8">
         <v>123</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c t="s" r="I93" s="14">
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="9">
+        <v>45</v>
+      </c>
+      <c r="M93" s="9"/>
+      <c t="s" r="N93" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="K94" s="10">
+        <v>3717.8299999999999</v>
+      </c>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="11">
         <v>124</v>
       </c>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c t="s" r="F95" s="12">
+        <v>125</v>
+      </c>
+      <c r="G95" s="12"/>
+      <c r="H95" s="13"/>
+      <c t="s" r="I95" s="14">
+        <v>126</v>
+      </c>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="275">
+  <mergeCells count="281">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3545,10 +3603,16 @@
     <mergeCell ref="B91:G91"/>
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="I93:N93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="I95:N95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
